--- a/biology/Médecine/André_Ombredane/André_Ombredane.xlsx
+++ b/biology/Médecine/André_Ombredane/André_Ombredane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Ombredane</t>
+          <t>André_Ombredane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Ombredane, né le 19 novembre 1898 à Parthenay et mort le 19 septembre 1958 à Suresnes, est un médecin et professeur d'université français. Il est connu pour son livre L’analyse du travail, écrit avec Jean-Marie Faverge, sur la psychologie du travail et l'ergonomie francophone.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Ombredane</t>
+          <t>André_Ombredane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est ancien élève de l'École normale supérieure et agrégé en philosophie en 1922. Il obtient son doctorat en médecine à Paris en 1929 en présentant une thèse intitulée « Les troubles mentaux de la sclérose en plaques », pour laquelle il obtient un prix de thèse. Il est interne en 1927-1930 à l’hôpital psychiatrique Henri Rousselle à Paris, puis est assistant de psychologie expérimentale à la Sorbonne. De 1939 à 1945, il est professeur de psychologie expérimentale à l’Université de Rio de Janeiro. Il réalise un doctorat ès-lettres en 1947 et il est nommé en 1948 professeur de psychologie à l’Université libre de Bruxelles.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Ombredane</t>
+          <t>André_Ombredane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1932 : Prix Dagnan Bouveret de l’Institut de France ;
 1939 : Prix Gegner de l’Institut de France ;
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Ombredane</t>
+          <t>André_Ombredane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ouvrages (sélection)
-L’analyse du travail ; facteur d’économie humaine et de productivité. (en collaboration avec Jean-Marie Faverge). Paris, PUF, 1955, 236 p.
+          <t>Ouvrages (sélection)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L’analyse du travail ; facteur d’économie humaine et de productivité. (en collaboration avec Jean-Marie Faverge). Paris, PUF, 1955, 236 p.
 La motivation. Le problème des besoins. Extrait du cours de psychologie. ULB, Fondation Serge Chinet, 1955-56.
 Les constitutions mentales ou le problème des composantes psychiatriques de la personnalité / extraits du cours de psychologie. 1958, 316 p.
-Structure du corps et personnalité. Presses universitaires de Bruxelles, 1959.
-Articles (sélection)
-Critique de la méthode d'investigation psychologique de Freud, Le Disque Vert 2e année, 3e Série, no 1, 1924 (Numéro spécial Sigmund Freud et la psychanalyse). p. 171-183. [lire en ligne]
+Structure du corps et personnalité. Presses universitaires de Bruxelles, 1959.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Ombredane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Ombredane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles (sélection)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Critique de la méthode d'investigation psychologique de Freud, Le Disque Vert 2e année, 3e Série, no 1, 1924 (Numéro spécial Sigmund Freud et la psychanalyse). p. 171-183. [lire en ligne]
 Sur le mécanisme de l’anarthrie. Journal de psychologie normale et pathologique, 1923, p. 140.
 Le langage. Revue philosophique de la France et de l’étranger, III, 1931, p. 217-271 et 424-463.</t>
         </is>
